--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726538.1746362332</v>
+        <v>-727250.7791102744</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.5623770505814</v>
+        <v>173.0093012751194</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>74.20505490682154</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505814</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550874</v>
+        <v>49.17968824550863</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673105</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>167.8289837992</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810728</v>
+        <v>56.92429879032037</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851671</v>
+        <v>13.2578025685166</v>
       </c>
       <c r="T12" t="n">
-        <v>188.5623770505814</v>
+        <v>36.64054962134799</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437486</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084694</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491541</v>
+        <v>38.9832651149153</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947031</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650155</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412736</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605251</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.7793658598946</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368722</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961311</v>
       </c>
     </row>
     <row r="14">
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>7.337018666059777</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>168.6883080494461</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.66716559384192</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>44.13476116065497</v>
+      </c>
+      <c r="U14" t="n">
+        <v>71.82086528673094</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62.66716559384204</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>44.13476116065509</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>88.40368168456426</v>
       </c>
     </row>
     <row r="15">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810614</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>40.50773058656092</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.05974815965087</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851671</v>
+        <v>13.2578025685166</v>
       </c>
       <c r="T15" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134799</v>
       </c>
       <c r="U15" t="n">
-        <v>188.5623770505815</v>
+        <v>58.89840834437486</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084694</v>
       </c>
       <c r="W15" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245628</v>
       </c>
       <c r="X15" t="n">
-        <v>188.5623770505815</v>
+        <v>38.9832651149153</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947031</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650155</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412736</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605251</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989471</v>
+        <v>66.7793658598946</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368722</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961311</v>
       </c>
     </row>
     <row r="17">
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>2.551623377181376</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>187.9862072499394</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016606</v>
+        <v>40.3475678501658</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>19.769534808705</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>153.4455094200205</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>166.0857417061522</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>46.08828904094918</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741945</v>
@@ -2567,13 +2567,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.0423609020312</v>
+        <v>14.04236090203113</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177535</v>
+        <v>8.997433817177466</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8185907504171</v>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9701989459033</v>
+        <v>68.04289524982379</v>
       </c>
       <c r="U27" t="n">
-        <v>55.41709647801802</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736944</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897885</v>
+        <v>53.23760690897879</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437804</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992815</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064986</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036448</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>14.04236090203119</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177534</v>
       </c>
       <c r="U29" t="n">
         <v>36.6835379432535</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.50322227787055</v>
+        <v>1.503222277870549</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089743</v>
+        <v>198.897986773991</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W30" t="n">
-        <v>105.9195249719003</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X30" t="n">
         <v>3.84593777143786</v>
@@ -3032,22 +3032,22 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036455</v>
+        <v>27.52983825036448</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203125</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T32" t="n">
-        <v>8.99743381717758</v>
+        <v>8.997433817177534</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325355</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>98.95480978844586</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.3673116582576</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9701989459033</v>
+        <v>1.503222277870549</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089748</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736956</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W33" t="n">
-        <v>53.2376069089789</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437917</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992929</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064998</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257514</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U34" t="n">
-        <v>75.1895720791323</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641722</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130264</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209841</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135731</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0275635329762</v>
+        <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632165</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279737011</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677899</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951563</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7781601007476</v>
+        <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914419</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429485</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090972</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984896</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2258905735927</v>
+        <v>110.2258905735926</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>134.7086383504342</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>186.3404944130965</v>
+        <v>197.7565886620309</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230782</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447816</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0275635329762</v>
+        <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632165</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279737011</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677899</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951563</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7781601007476</v>
+        <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914419</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429485</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090972</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984896</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2258905735927</v>
+        <v>110.2258905735926</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>31.44441249603125</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>72.52316476486044</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230782</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447816</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889006</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075478</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5874518930719</v>
+        <v>112.1432120259593</v>
       </c>
       <c r="T42" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>34.9102455661944</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>87.36843021324944</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>25.70776865861436</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.02063319114137</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>441.559679330789</v>
+        <v>346.5302612419435</v>
       </c>
       <c r="C11" t="n">
-        <v>441.559679330789</v>
+        <v>346.5302612419435</v>
       </c>
       <c r="D11" t="n">
-        <v>280.5066386058677</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="E11" t="n">
-        <v>280.5066386058677</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5520376898863</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08499016404651</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="H11" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567086</v>
+        <v>97.54238483187061</v>
       </c>
       <c r="K11" t="n">
-        <v>115.6457740567086</v>
+        <v>267.4711326400899</v>
       </c>
       <c r="L11" t="n">
-        <v>162.4191122870025</v>
+        <v>314.2444708703838</v>
       </c>
       <c r="M11" t="n">
-        <v>243.3394230101542</v>
+        <v>395.1647815935355</v>
       </c>
       <c r="N11" t="n">
-        <v>430.0161762902299</v>
+        <v>470.5520315267736</v>
       </c>
       <c r="O11" t="n">
-        <v>504.828715160203</v>
+        <v>504.8287151602032</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381369</v>
+        <v>666.4818518381371</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023257</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R11" t="n">
-        <v>754.2495082023257</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S11" t="n">
-        <v>704.5730554290845</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="T11" t="n">
-        <v>704.5730554290845</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="U11" t="n">
-        <v>632.026726856629</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="V11" t="n">
-        <v>632.026726856629</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="W11" t="n">
-        <v>632.026726856629</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="X11" t="n">
-        <v>632.026726856629</v>
+        <v>521.2871312168115</v>
       </c>
       <c r="Y11" t="n">
-        <v>632.026726856629</v>
+        <v>521.2871312168115</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.3543708174459</v>
+        <v>299.1355510500816</v>
       </c>
       <c r="C12" t="n">
-        <v>68.07305546410173</v>
+        <v>241.6362593426873</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410173</v>
+        <v>241.6362593426873</v>
       </c>
       <c r="E12" t="n">
         <v>68.07305546410173</v>
@@ -5118,52 +5118,52 @@
         <v>68.07305546410173</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635089</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681692</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486672</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287428</v>
+        <v>538.8471199287432</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110297</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023257</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905393</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905393</v>
+        <v>747.3338450905397</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243607</v>
+        <v>733.9421253243613</v>
       </c>
       <c r="T12" t="n">
-        <v>543.4750777985209</v>
+        <v>696.9314691411815</v>
       </c>
       <c r="U12" t="n">
-        <v>483.981736036526</v>
+        <v>637.4381273791868</v>
       </c>
       <c r="V12" t="n">
-        <v>421.0329768538522</v>
+        <v>574.4893681965131</v>
       </c>
       <c r="W12" t="n">
-        <v>331.7653664978357</v>
+        <v>384.0223206706731</v>
       </c>
       <c r="X12" t="n">
-        <v>292.3883310282241</v>
+        <v>344.6452852010617</v>
       </c>
       <c r="Y12" t="n">
-        <v>246.8785968772439</v>
+        <v>299.1355510500816</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404651</v>
+        <v>26.83873383310365</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404651</v>
+        <v>59.6542629162098</v>
       </c>
       <c r="E13" t="n">
-        <v>15.08499016404651</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="F13" t="n">
-        <v>54.09372959909397</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="G13" t="n">
-        <v>63.62646447094391</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="H13" t="n">
-        <v>76.00799031155158</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="I13" t="n">
-        <v>76.00799031155158</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5276813781632</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="K13" t="n">
-        <v>133.5276813781632</v>
+        <v>74.83010016317456</v>
       </c>
       <c r="L13" t="n">
-        <v>133.5276813781632</v>
+        <v>219.5683396184326</v>
       </c>
       <c r="M13" t="n">
-        <v>285.1327281303635</v>
+        <v>219.5683396184326</v>
       </c>
       <c r="N13" t="n">
-        <v>285.1327281303635</v>
+        <v>379.7825711421972</v>
       </c>
       <c r="O13" t="n">
-        <v>349.9613012161993</v>
+        <v>519.245920161285</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260462</v>
+        <v>519.245920161285</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.245920161285</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.898915457748</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111548</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272634</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791728</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701886</v>
+        <v>211.4309369701883</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980466</v>
+        <v>98.31875740980445</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456493</v>
+        <v>54.28865025456482</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>620.3722932071547</v>
+        <v>256.1885177492463</v>
       </c>
       <c r="C14" t="n">
-        <v>620.3722932071547</v>
+        <v>256.1885177492463</v>
       </c>
       <c r="D14" t="n">
-        <v>459.3192524822334</v>
+        <v>256.1885177492463</v>
       </c>
       <c r="E14" t="n">
-        <v>268.8522049563935</v>
+        <v>248.7773877835293</v>
       </c>
       <c r="F14" t="n">
-        <v>268.8522049563935</v>
+        <v>248.7773877835293</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055363</v>
+        <v>248.7773877835293</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055363</v>
+        <v>78.38515743055352</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567086</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649278</v>
+        <v>267.4711326400899</v>
       </c>
       <c r="L14" t="n">
-        <v>332.3478600952217</v>
+        <v>314.2444708703838</v>
       </c>
       <c r="M14" t="n">
-        <v>413.2681708183734</v>
+        <v>395.1647815935355</v>
       </c>
       <c r="N14" t="n">
-        <v>488.6554207516115</v>
+        <v>470.5520315267736</v>
       </c>
       <c r="O14" t="n">
-        <v>675.3321740316871</v>
+        <v>504.8287151602032</v>
       </c>
       <c r="P14" t="n">
-        <v>754.2495082023258</v>
+        <v>666.4818518381371</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T14" t="n">
-        <v>709.6689413733812</v>
+        <v>709.6689413733816</v>
       </c>
       <c r="U14" t="n">
-        <v>709.6689413733812</v>
+        <v>637.1226128009262</v>
       </c>
       <c r="V14" t="n">
-        <v>709.6689413733812</v>
+        <v>637.1226128009262</v>
       </c>
       <c r="W14" t="n">
-        <v>709.6689413733812</v>
+        <v>637.1226128009262</v>
       </c>
       <c r="X14" t="n">
-        <v>709.6689413733812</v>
+        <v>637.1226128009262</v>
       </c>
       <c r="Y14" t="n">
-        <v>620.3722932071547</v>
+        <v>446.6555652750862</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.2712703998307</v>
+        <v>407.2506513316914</v>
       </c>
       <c r="C15" t="n">
-        <v>108.9899550464865</v>
+        <v>397.9693359783473</v>
       </c>
       <c r="D15" t="n">
-        <v>108.9899550464865</v>
+        <v>237.1892197393791</v>
       </c>
       <c r="E15" t="n">
-        <v>68.07305546410174</v>
+        <v>237.1892197393791</v>
       </c>
       <c r="F15" t="n">
-        <v>68.07305546410174</v>
+        <v>76.76150345662316</v>
       </c>
       <c r="G15" t="n">
-        <v>68.07305546410174</v>
+        <v>76.76150345662316</v>
       </c>
       <c r="H15" t="n">
-        <v>68.07305546410174</v>
+        <v>76.76150345662316</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410174</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635106</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681693</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486674</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N15" t="n">
-        <v>538.847119928743</v>
+        <v>538.8471199287432</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110299</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905394</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905394</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S15" t="n">
-        <v>733.9421253243609</v>
+        <v>740.8577884361476</v>
       </c>
       <c r="T15" t="n">
-        <v>696.931469141181</v>
+        <v>703.8471322529679</v>
       </c>
       <c r="U15" t="n">
-        <v>506.4644216153411</v>
+        <v>644.3537904909731</v>
       </c>
       <c r="V15" t="n">
-        <v>443.5156624326673</v>
+        <v>581.4050313082994</v>
       </c>
       <c r="W15" t="n">
-        <v>354.2480520766508</v>
+        <v>492.1374209522829</v>
       </c>
       <c r="X15" t="n">
-        <v>163.7810045508109</v>
+        <v>452.7603854826715</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.2712703998307</v>
+        <v>407.2506513316914</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.79059153703774</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C16" t="n">
-        <v>27.54433520609476</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D16" t="n">
-        <v>60.35986428920079</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E16" t="n">
-        <v>96.64683732040768</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F16" t="n">
-        <v>135.6555767554551</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G16" t="n">
-        <v>145.1883116273051</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H16" t="n">
-        <v>145.1883116273051</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I16" t="n">
-        <v>158.5347134762154</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J16" t="n">
-        <v>206.8228327128482</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K16" t="n">
-        <v>317.0268416738459</v>
+        <v>125.2889991250443</v>
       </c>
       <c r="L16" t="n">
-        <v>317.0268416738459</v>
+        <v>270.0272385803024</v>
       </c>
       <c r="M16" t="n">
-        <v>468.6318884260462</v>
+        <v>270.0272385803024</v>
       </c>
       <c r="N16" t="n">
-        <v>468.6318884260462</v>
+        <v>270.0272385803024</v>
       </c>
       <c r="O16" t="n">
-        <v>468.6318884260462</v>
+        <v>409.4905875993901</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260462</v>
+        <v>519.245920161285</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612859</v>
+        <v>519.245920161285</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577488</v>
+        <v>493.898915457748</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111548</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272634</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791728</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701886</v>
+        <v>211.4309369701883</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980466</v>
+        <v>98.31875740980445</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456493</v>
+        <v>54.28865025456482</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404652</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340409</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C17" t="n">
         <v>410.2194918844273</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F17" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267291</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404652</v>
@@ -5534,31 +5534,31 @@
         <v>308.3060717890871</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4829784168837</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="R17" t="n">
-        <v>564.0214906197988</v>
+        <v>564.0214906197991</v>
       </c>
       <c r="S17" t="n">
-        <v>633.2375922995761</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933586</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338445</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075481</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="C18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="D18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="E18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="F18" t="n">
-        <v>403.35474439373</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="G18" t="n">
-        <v>253.1078507678123</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H18" t="n">
-        <v>126.1040242612715</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I18" t="n">
-        <v>17.66238751473477</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681694</v>
@@ -5604,40 +5604,40 @@
         <v>352.1703666486675</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O18" t="n">
-        <v>670.59040721103</v>
+        <v>670.5904072110302</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.2495082023258</v>
+        <v>747.3338450905399</v>
       </c>
       <c r="R18" t="n">
-        <v>754.2495082023258</v>
+        <v>747.3338450905399</v>
       </c>
       <c r="S18" t="n">
-        <v>563.7824606764859</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="T18" t="n">
-        <v>563.7824606764859</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="U18" t="n">
-        <v>563.7824606764859</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="V18" t="n">
-        <v>563.7824606764859</v>
+        <v>366.39975003886</v>
       </c>
       <c r="W18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="X18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="Y18" t="n">
-        <v>563.7824606764859</v>
+        <v>176.5146922106384</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340408</v>
+        <v>463.5335379340406</v>
       </c>
       <c r="C20" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844268</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438552</v>
+        <v>369.4643728438558</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372139</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267291</v>
+        <v>65.17929883267298</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897387</v>
+        <v>70.94848926897382</v>
       </c>
       <c r="J20" t="n">
         <v>257.6252425490495</v>
@@ -5765,28 +5765,28 @@
         <v>460.7061414357332</v>
       </c>
       <c r="O20" t="n">
-        <v>494.9828250691627</v>
+        <v>494.9828250691628</v>
       </c>
       <c r="P20" t="n">
-        <v>564.0214906197988</v>
+        <v>583.4948943196338</v>
       </c>
       <c r="Q20" t="n">
-        <v>564.0214906197988</v>
+        <v>583.4948943196338</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197988</v>
+        <v>685.0334065225488</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995761</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933586</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557695</v>
+        <v>730.5573952557696</v>
       </c>
       <c r="W20" t="n">
         <v>689.6767164338446</v>
@@ -5795,7 +5795,7 @@
         <v>626.6887139059204</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075479</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>365.277380670051</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="C21" t="n">
-        <v>175.8651064030147</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="D21" t="n">
-        <v>15.08499016404652</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="E21" t="n">
-        <v>15.08499016404652</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="F21" t="n">
-        <v>15.08499016404652</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H21" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681694</v>
@@ -5844,37 +5844,37 @@
         <v>538.8471199287432</v>
       </c>
       <c r="O21" t="n">
-        <v>670.59040721103</v>
+        <v>670.5904072110301</v>
       </c>
       <c r="P21" t="n">
-        <v>754.249508202326</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.249508202326</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R21" t="n">
-        <v>754.249508202326</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S21" t="n">
-        <v>754.249508202326</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T21" t="n">
-        <v>754.249508202326</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U21" t="n">
-        <v>734.280281122826</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="V21" t="n">
-        <v>734.280281122826</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="W21" t="n">
-        <v>734.280281122826</v>
+        <v>408.7869966158594</v>
       </c>
       <c r="X21" t="n">
-        <v>734.280281122826</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="Y21" t="n">
-        <v>543.813233596986</v>
+        <v>218.3199490900195</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340404</v>
+        <v>463.5335379340409</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844266</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267298</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404652</v>
@@ -5990,49 +5990,49 @@
         <v>201.7617434441222</v>
       </c>
       <c r="K23" t="n">
-        <v>201.7617434441222</v>
+        <v>388.4384967241979</v>
       </c>
       <c r="L23" t="n">
-        <v>341.1148358068421</v>
+        <v>435.2118349544919</v>
       </c>
       <c r="M23" t="n">
-        <v>422.0351465299937</v>
+        <v>516.1321456776436</v>
       </c>
       <c r="N23" t="n">
-        <v>497.4223964632318</v>
+        <v>591.5193956108817</v>
       </c>
       <c r="O23" t="n">
-        <v>531.6990800966613</v>
+        <v>625.7960792443113</v>
       </c>
       <c r="P23" t="n">
-        <v>531.6990800966613</v>
+        <v>680.0389287085437</v>
       </c>
       <c r="Q23" t="n">
-        <v>531.6990800966613</v>
+        <v>680.0389287085437</v>
       </c>
       <c r="R23" t="n">
-        <v>633.2375922995764</v>
+        <v>680.0389287085437</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995764</v>
+        <v>680.0389287085437</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933588</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U23" t="n">
         <v>754.2495082023261</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557695</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338446</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075475</v>
+        <v>540.970556707548</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>326.7615858365562</v>
+        <v>182.8483656248063</v>
       </c>
       <c r="C24" t="n">
-        <v>326.7615858365562</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D24" t="n">
-        <v>326.7615858365562</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E24" t="n">
-        <v>326.7615858365562</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F24" t="n">
-        <v>326.7615858365562</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G24" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404651</v>
       </c>
       <c r="H24" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404651</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410174</v>
+        <v>15.08499016404651</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404651</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681694</v>
@@ -6078,7 +6078,7 @@
         <v>352.1703666486675</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287432</v>
       </c>
       <c r="O24" t="n">
         <v>670.5904072110301</v>
@@ -6093,25 +6093,25 @@
         <v>754.2495082023261</v>
       </c>
       <c r="S24" t="n">
-        <v>707.695680888236</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T24" t="n">
-        <v>517.2286333623961</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U24" t="n">
-        <v>326.7615858365562</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="V24" t="n">
-        <v>326.7615858365562</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="W24" t="n">
-        <v>326.7615858365562</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="X24" t="n">
-        <v>326.7615858365562</v>
+        <v>373.3154131506462</v>
       </c>
       <c r="Y24" t="n">
-        <v>326.7615858365562</v>
+        <v>182.8483656248063</v>
       </c>
     </row>
     <row r="25">
@@ -6206,22 +6206,22 @@
         <v>882.8924400792733</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
         <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577069</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662745</v>
+        <v>63.72957914662766</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
         <v>171.2683996847217</v>
@@ -6230,16 +6230,16 @@
         <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946299</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191341</v>
+        <v>926.341364319134</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153724</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
         <v>1655.109002436483</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.4848656006024</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4848656006024</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4848656006024</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201685</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
         <v>73.91372875432148</v>
@@ -6315,40 +6315,40 @@
         <v>373.0070382066378</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004874</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827743</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740702</v>
+        <v>599.8380156941998</v>
       </c>
       <c r="T27" t="n">
-        <v>576.2190792771983</v>
+        <v>531.1078184721556</v>
       </c>
       <c r="U27" t="n">
-        <v>520.2422141478871</v>
+        <v>291.4835177964685</v>
       </c>
       <c r="V27" t="n">
-        <v>492.7857048071098</v>
+        <v>264.0270084556913</v>
       </c>
       <c r="W27" t="n">
-        <v>439.0103442929898</v>
+        <v>210.2516479415713</v>
       </c>
       <c r="X27" t="n">
-        <v>219.5023499096861</v>
+        <v>206.3668623138564</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.4848656006024</v>
+        <v>196.3493780047727</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>71.41321716505085</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>71.41321716505085</v>
+        <v>92.04053503331266</v>
       </c>
       <c r="L28" t="n">
-        <v>71.41321716505085</v>
+        <v>92.04053503331266</v>
       </c>
       <c r="M28" t="n">
-        <v>71.41321716505085</v>
+        <v>92.04053503331266</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224436</v>
+        <v>92.04053503331266</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177467</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757517</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398184</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063875</v>
+        <v>39.63307197063868</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792731</v>
+        <v>882.8924400792736</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962488</v>
       </c>
       <c r="E29" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693956</v>
+        <v>406.0748730693961</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577066</v>
+        <v>198.6295596577071</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7295791466272</v>
+        <v>63.72957914662766</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847224</v>
+        <v>171.2683996847222</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629843</v>
+        <v>375.9831015629841</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946306</v>
+        <v>634.0887466946303</v>
       </c>
       <c r="M29" t="n">
         <v>926.3413643191345</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>225.3339359890531</v>
+        <v>359.7317592265201</v>
       </c>
       <c r="C30" t="n">
-        <v>35.92166172201684</v>
+        <v>359.7317592265201</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201684</v>
+        <v>359.7317592265201</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>186.1685553479346</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>186.1685553479346</v>
       </c>
       <c r="G30" t="n">
         <v>35.92166172201684</v>
@@ -6552,40 +6552,40 @@
         <v>373.0070382066378</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004874</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827743</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R30" t="n">
-        <v>793.3606943740702</v>
+        <v>657.2913627069652</v>
       </c>
       <c r="S30" t="n">
-        <v>793.3606943740702</v>
+        <v>657.2913627069652</v>
       </c>
       <c r="T30" t="n">
-        <v>791.8422880327869</v>
+        <v>655.7729563656818</v>
       </c>
       <c r="U30" t="n">
-        <v>767.8411961126885</v>
+        <v>454.8658990182162</v>
       </c>
       <c r="V30" t="n">
-        <v>524.7614780163226</v>
+        <v>427.4093896774389</v>
       </c>
       <c r="W30" t="n">
-        <v>417.772058852787</v>
+        <v>373.6340291633189</v>
       </c>
       <c r="X30" t="n">
-        <v>413.887273225072</v>
+        <v>369.7492435356039</v>
       </c>
       <c r="Y30" t="n">
-        <v>403.8697889159882</v>
+        <v>359.7317592265201</v>
       </c>
     </row>
     <row r="31">
@@ -6628,16 +6628,16 @@
         <v>35.92166172201684</v>
       </c>
       <c r="M31" t="n">
-        <v>222.31266254426</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N31" t="n">
-        <v>222.31266254426</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O31" t="n">
-        <v>222.31266254426</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="P31" t="n">
-        <v>222.31266254426</v>
+        <v>180.8898523171611</v>
       </c>
       <c r="Q31" t="n">
         <v>266.2898381224435</v>
@@ -6658,10 +6658,10 @@
         <v>125.7908590024694</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398195</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063874</v>
+        <v>39.63307197063873</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792738</v>
+        <v>882.8924400792735</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962487</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471543</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G32" t="n">
         <v>198.629559657707</v>
       </c>
       <c r="H32" t="n">
-        <v>63.7295791466275</v>
+        <v>63.72957914662757</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847225</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629844</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946307</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191348</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
         <v>1777.662612870715</v>
@@ -6731,7 +6731,7 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6743,7 +6743,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>457.0838475654035</v>
+        <v>385.761652271809</v>
       </c>
       <c r="C33" t="n">
-        <v>457.0838475654035</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="D33" t="n">
-        <v>296.3037313264352</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="E33" t="n">
-        <v>296.3037313264352</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F33" t="n">
-        <v>135.8760150436793</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G33" t="n">
         <v>35.92166172201684</v>
@@ -6789,40 +6789,40 @@
         <v>373.0070382066378</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004874</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827743</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740702</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R33" t="n">
-        <v>793.3606943740702</v>
+        <v>657.2913627069652</v>
       </c>
       <c r="S33" t="n">
-        <v>793.3606943740702</v>
+        <v>506.4152903248868</v>
       </c>
       <c r="T33" t="n">
-        <v>576.2190792771983</v>
+        <v>504.8968839836035</v>
       </c>
       <c r="U33" t="n">
-        <v>552.2179873570998</v>
+        <v>480.895792063505</v>
       </c>
       <c r="V33" t="n">
-        <v>524.7614780163225</v>
+        <v>453.4392827227278</v>
       </c>
       <c r="W33" t="n">
-        <v>470.9861175022024</v>
+        <v>399.6639222086077</v>
       </c>
       <c r="X33" t="n">
-        <v>467.1013318744873</v>
+        <v>395.7791365808927</v>
       </c>
       <c r="Y33" t="n">
-        <v>457.0838475654035</v>
+        <v>385.761652271809</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>82.46135946111659</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>150.0628426142653</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>192.4951446173538</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G34" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H34" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I34" t="n">
-        <v>266.2898381224439</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J34" t="n">
-        <v>266.2898381224439</v>
+        <v>128.2273068586712</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="S34" t="n">
-        <v>244.099493717747</v>
+        <v>244.0994937177466</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757519</v>
+        <v>233.7015767757516</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695577</v>
+        <v>157.7525140695574</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024696</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398207</v>
+        <v>48.17092928398195</v>
       </c>
       <c r="X34" t="n">
-        <v>39.6330719706388</v>
+        <v>39.63307197063873</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.011976583746</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
         <v>544.0768043248352</v>
@@ -6926,61 +6926,61 @@
         <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589376</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516567</v>
+        <v>51.58890486516577</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9424160029267</v>
+        <v>51.58890486516577</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7962265328096</v>
+        <v>178.1482812515671</v>
       </c>
       <c r="L35" t="n">
-        <v>549.5695647631035</v>
+        <v>224.9216194818611</v>
       </c>
       <c r="M35" t="n">
-        <v>630.4898754862552</v>
+        <v>305.8419302050128</v>
       </c>
       <c r="N35" t="n">
-        <v>705.8771254194933</v>
+        <v>381.2291801382509</v>
       </c>
       <c r="O35" t="n">
-        <v>740.1538090529228</v>
+        <v>415.5058637716804</v>
       </c>
       <c r="P35" t="n">
-        <v>740.1538090529228</v>
+        <v>669.9517276947134</v>
       </c>
       <c r="Q35" t="n">
-        <v>920.7141926622106</v>
+        <v>850.5121113040013</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9393577091857</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912311</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.143507287282</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898517</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426629</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114408</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742197</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027497</v>
+        <v>58.82873859027495</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620932</v>
@@ -7026,40 +7026,40 @@
         <v>357.9220480425913</v>
       </c>
       <c r="N36" t="n">
-        <v>562.8733159364409</v>
+        <v>562.873315936441</v>
       </c>
       <c r="O36" t="n">
-        <v>694.6166032187277</v>
+        <v>694.616603218728</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100237</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100237</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R36" t="n">
-        <v>642.2063725429184</v>
+        <v>642.2063725429186</v>
       </c>
       <c r="S36" t="n">
-        <v>448.6836938630478</v>
+        <v>642.2063725429186</v>
       </c>
       <c r="T36" t="n">
-        <v>260.4609722336574</v>
+        <v>442.4522425812713</v>
       </c>
       <c r="U36" t="n">
-        <v>20.83667155797033</v>
+        <v>442.4522425812713</v>
       </c>
       <c r="V36" t="n">
-        <v>20.83667155797033</v>
+        <v>199.3725244849054</v>
       </c>
       <c r="W36" t="n">
-        <v>20.83667155797033</v>
+        <v>199.3725244849054</v>
       </c>
       <c r="X36" t="n">
-        <v>20.83667155797033</v>
+        <v>199.3725244849054</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83667155797033</v>
+        <v>199.3725244849054</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271634002</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271634002</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330181</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330181</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837474</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248366</v>
+        <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749678</v>
+        <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590294</v>
+        <v>377.2770891590286</v>
       </c>
       <c r="F38" t="n">
-        <v>244.812874214427</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589378</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797035</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516568</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9424160029267</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K38" t="n">
-        <v>432.5941451746023</v>
+        <v>278.690482087853</v>
       </c>
       <c r="L38" t="n">
-        <v>479.3674834048962</v>
+        <v>325.4638203181469</v>
       </c>
       <c r="M38" t="n">
-        <v>560.2877941280479</v>
+        <v>406.3841310412986</v>
       </c>
       <c r="N38" t="n">
-        <v>635.675044061286</v>
+        <v>481.7713809745367</v>
       </c>
       <c r="O38" t="n">
-        <v>669.9517276947156</v>
+        <v>516.0480646079662</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947156</v>
+        <v>746.3789740998966</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5121113040034</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091864</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912318</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.143507287282</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898517</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426641</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114422</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742209</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665515</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>705.0199822253164</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="C39" t="n">
-        <v>515.6077079582801</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="D39" t="n">
-        <v>354.8275917193118</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2643878407263</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797035</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797035</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797035</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797035</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797035</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027495</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620932</v>
@@ -7284,19 +7284,19 @@
         <v>778.2757042100239</v>
       </c>
       <c r="U39" t="n">
-        <v>705.0199822253164</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="V39" t="n">
-        <v>705.0199822253164</v>
+        <v>535.195986113658</v>
       </c>
       <c r="W39" t="n">
-        <v>705.0199822253164</v>
+        <v>272.1066987655479</v>
       </c>
       <c r="X39" t="n">
-        <v>705.0199822253164</v>
+        <v>52.59870438224431</v>
       </c>
       <c r="Y39" t="n">
-        <v>705.0199822253164</v>
+        <v>52.59870438224431</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271634003</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330183</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330183</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797035</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797035</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797035</v>
+        <v>56.03657271633976</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676709</v>
+        <v>818.5041758676714</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002147</v>
+        <v>708.1923754002152</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418007</v>
+        <v>610.4395019418012</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173169</v>
+        <v>478.6394038173173</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641693</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
@@ -7415,25 +7415,25 @@
         <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>469.4129593976047</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M41" t="n">
-        <v>550.3332701207564</v>
+        <v>788.9201168899697</v>
       </c>
       <c r="N41" t="n">
-        <v>679.7150721488516</v>
+        <v>931.6545214929148</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514944</v>
+        <v>965.9312051263444</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1339.432986044274</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S41" t="n">
         <v>1385.107999142262</v>
@@ -7442,19 +7442,19 @@
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
         <v>1215.640617621002</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590205</v>
+        <v>952.938949059021</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="C42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="D42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="E42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="F42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="G42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="H42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05716689067756</v>
+        <v>81.05716689067755</v>
       </c>
       <c r="J42" t="n">
         <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292697</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947452</v>
@@ -7500,40 +7500,40 @@
         <v>365.1544780752433</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690929</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513798</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426757</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.5924711308893</v>
+        <v>785.508134242676</v>
       </c>
       <c r="R42" t="n">
-        <v>778.5924711308893</v>
+        <v>785.508134242676</v>
       </c>
       <c r="S42" t="n">
-        <v>585.0697924510187</v>
+        <v>672.2321624992827</v>
       </c>
       <c r="T42" t="n">
-        <v>367.9281773541467</v>
+        <v>455.0905474024107</v>
       </c>
       <c r="U42" t="n">
-        <v>332.6653030448594</v>
+        <v>215.4662467267237</v>
       </c>
       <c r="V42" t="n">
-        <v>332.6653030448594</v>
+        <v>215.4662467267237</v>
       </c>
       <c r="W42" t="n">
-        <v>306.6978599553499</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="X42" t="n">
-        <v>306.6978599553499</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.05716689067756</v>
+        <v>189.4988036372142</v>
       </c>
     </row>
     <row r="43">
@@ -7567,25 +7567,25 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="Q43" t="n">
         <v>130.1759968085602</v>
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.504175867672</v>
+        <v>818.5041758676715</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002157</v>
+        <v>708.1923754002153</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418014</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173173</v>
+        <v>478.6394038173169</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641696</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1611646770912</v>
+        <v>135.1611646770911</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062234</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0383433367451</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L44" t="n">
-        <v>545.3985283362523</v>
+        <v>469.4129593976047</v>
       </c>
       <c r="M44" t="n">
-        <v>864.9056858286173</v>
+        <v>550.3332701207564</v>
       </c>
       <c r="N44" t="n">
-        <v>940.2929357618553</v>
+        <v>711.4147551125562</v>
       </c>
       <c r="O44" t="n">
-        <v>974.5696193952849</v>
+        <v>984.2782855151991</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.263250011122</v>
+        <v>1207.971916131037</v>
       </c>
       <c r="Q44" t="n">
-        <v>1348.071400313215</v>
+        <v>1357.780066433129</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142262</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.208918225169</v>
+        <v>1394.208918225168</v>
       </c>
       <c r="V44" t="n">
         <v>1313.51905086077</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590215</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>522.840137990932</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C45" t="n">
-        <v>522.840137990932</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0600217519638</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4968178733783</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K45" t="n">
         <v>66.06116862292697</v>
@@ -7737,40 +7737,40 @@
         <v>365.1544780752433</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690929</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513798</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426757</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426757</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="R45" t="n">
-        <v>785.5081342426757</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="S45" t="n">
-        <v>785.5081342426757</v>
+        <v>585.069792451019</v>
       </c>
       <c r="T45" t="n">
-        <v>785.5081342426757</v>
+        <v>367.928177354147</v>
       </c>
       <c r="U45" t="n">
-        <v>785.5081342426757</v>
+        <v>279.6772377448041</v>
       </c>
       <c r="V45" t="n">
-        <v>785.5081342426757</v>
+        <v>279.6772377448041</v>
       </c>
       <c r="W45" t="n">
-        <v>759.5406911531663</v>
+        <v>253.7097946552947</v>
       </c>
       <c r="X45" t="n">
-        <v>540.0326967698627</v>
+        <v>253.7097946552947</v>
       </c>
       <c r="Y45" t="n">
-        <v>522.840137990932</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062234</v>
+        <v>101.863339197583</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085602</v>
+        <v>101.863339197583</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085602</v>
+        <v>101.863339197583</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085602</v>
+        <v>101.863339197583</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085602</v>
+        <v>101.863339197583</v>
       </c>
       <c r="P46" t="n">
         <v>130.1759968085602</v>
@@ -7843,13 +7843,13 @@
         <v>77.8811138844992</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.3734735841507</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099999</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9252,13 +9252,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786792</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.195214002696702</v>
+        <v>22.74828977815864</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.149262737081</v>
+        <v>193.1492627370808</v>
       </c>
       <c r="F11" t="n">
-        <v>150.6645454086367</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046818</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384206</v>
+        <v>62.66716559384192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718777</v>
+        <v>16.53078872718765</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065507</v>
+        <v>44.13476116065497</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673094</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532781</v>
+        <v>7.195214002696503</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>4.5868856864995</v>
+        <v>185.8122440710211</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154583</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046815</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718777</v>
+        <v>16.53078872718765</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550874</v>
+        <v>49.17968824550863</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845968</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y14" t="n">
-        <v>115.5522364093304</v>
+        <v>15.39354104331306</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1040208.686953389</v>
+        <v>1040208.68695339</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396869.3978294068</v>
+        <v>396869.397829407</v>
       </c>
       <c r="C2" t="n">
-        <v>396869.3978294068</v>
+        <v>396869.3978294069</v>
       </c>
       <c r="D2" t="n">
         <v>396869.3978294069</v>
       </c>
       <c r="E2" t="n">
+        <v>341995.5400592154</v>
+      </c>
+      <c r="F2" t="n">
         <v>341995.5400592155</v>
       </c>
-      <c r="F2" t="n">
-        <v>341995.5400592154</v>
-      </c>
       <c r="G2" t="n">
-        <v>397673.3469863409</v>
+        <v>397673.346986341</v>
       </c>
       <c r="H2" t="n">
         <v>397673.3469863409</v>
       </c>
       <c r="I2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="J2" t="n">
-        <v>397673.3469863404</v>
+        <v>397673.3469863408</v>
       </c>
       <c r="K2" t="n">
-        <v>397673.3469863404</v>
+        <v>397673.3469863405</v>
       </c>
       <c r="L2" t="n">
-        <v>397673.3469863404</v>
+        <v>397673.3469863405</v>
       </c>
       <c r="M2" t="n">
-        <v>397673.3469863409</v>
+        <v>397673.3469863407</v>
       </c>
       <c r="N2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863407</v>
       </c>
       <c r="O2" t="n">
         <v>397673.3469863411</v>
       </c>
       <c r="P2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863409</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842062</v>
+        <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400473</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243412</v>
+        <v>143645.0035243414</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400473</v>
       </c>
       <c r="M3" t="n">
         <v>46874.16014145959</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660011</v>
+        <v>72403.4818166003</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>430234.1355076953</v>
       </c>
       <c r="E4" t="n">
-        <v>319543.8970593063</v>
+        <v>319543.8970593064</v>
       </c>
       <c r="F4" t="n">
-        <v>319543.8970593063</v>
+        <v>319543.8970593064</v>
       </c>
       <c r="G4" t="n">
         <v>390006.8734640137</v>
@@ -26439,7 +26439,7 @@
         <v>390006.8734640137</v>
       </c>
       <c r="J4" t="n">
-        <v>390873.6905933486</v>
+        <v>390873.6905933487</v>
       </c>
       <c r="K4" t="n">
         <v>390873.6905933486</v>
@@ -26448,7 +26448,7 @@
         <v>390873.6905933486</v>
       </c>
       <c r="M4" t="n">
-        <v>390048.6636155474</v>
+        <v>390048.6636155473</v>
       </c>
       <c r="N4" t="n">
         <v>390048.6636155473</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301863</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301863</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.13884131939</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="H5" t="n">
         <v>38676.13884131939</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131939</v>
       </c>
       <c r="J5" t="n">
         <v>47453.7764795149</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="L5" t="n">
         <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66992.33767828843</v>
+        <v>-66996.80406249351</v>
       </c>
       <c r="C6" t="n">
-        <v>-66992.33767828843</v>
+        <v>-66996.80406249357</v>
       </c>
       <c r="D6" t="n">
-        <v>-66992.33767828837</v>
+        <v>-66996.80406249357</v>
       </c>
       <c r="E6" t="n">
-        <v>-286525.1453073156</v>
+        <v>-286834.4664569111</v>
       </c>
       <c r="F6" t="n">
-        <v>-6212.303123109508</v>
+        <v>-6521.624272704665</v>
       </c>
       <c r="G6" t="n">
-        <v>-126285.619292997</v>
+        <v>-126285.6192929968</v>
       </c>
       <c r="H6" t="n">
-        <v>-31009.66531899225</v>
+        <v>-31009.66531899219</v>
       </c>
       <c r="I6" t="n">
-        <v>-31009.66531899208</v>
+        <v>-31009.66531899213</v>
       </c>
       <c r="J6" t="n">
-        <v>-184299.1236108643</v>
+        <v>-184299.1236108642</v>
       </c>
       <c r="K6" t="n">
-        <v>-40654.12008652311</v>
+        <v>-40654.12008652293</v>
       </c>
       <c r="L6" t="n">
-        <v>-135930.0740605278</v>
+        <v>-135930.0740605277</v>
       </c>
       <c r="M6" t="n">
-        <v>-80164.49043667107</v>
+        <v>-80164.49043667119</v>
       </c>
       <c r="N6" t="n">
-        <v>-33290.33029521153</v>
+        <v>-33290.33029521158</v>
       </c>
       <c r="O6" t="n">
-        <v>-108966.2785700691</v>
+        <v>-108966.2785700693</v>
       </c>
       <c r="P6" t="n">
-        <v>-36562.79675346892</v>
+        <v>-36562.79675346908</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26707,7 +26707,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
         <v>213.4669766680327</v>
@@ -26716,10 +26716,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="O2" t="n">
         <v>240.9968149183972</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="F4" t="n">
         <v>188.5623770505815</v>
@@ -26811,7 +26811,7 @@
         <v>188.5623770505815</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="K4" t="n">
         <v>449.0207715252105</v>
@@ -26820,16 +26820,16 @@
         <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746292</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746294</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
         <v>350.8637698827793</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827791</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052671</v>
+        <v>94.37203420052694</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
         <v>58.59270017682448</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406678</v>
+        <v>63.3091722740669</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540814989</v>
+        <v>90.40537540815029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052671</v>
+        <v>94.37203420052694</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>160.0433975822946</v>
       </c>
       <c r="K11" t="n">
-        <v>6.684449518273233</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>40.94530831974107</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.921510598465716</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>130.5938527340456</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28217,25 +28217,25 @@
         <v>134.7086383504342</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T12" t="n">
-        <v>26.40782189532186</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>78.14220652643007</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="13">
@@ -28248,73 +28248,73 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>157.0052697445126</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245552</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.3296493245552</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245552</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
         <v>67.01246855587067</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055729</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="M13" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984363</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="O13" t="n">
-        <v>102.940986765715</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245552</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245552</v>
+        <v>160.0433975822946</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9394642895415</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>94.75813164041865</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.67545097688972</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="15">
@@ -28406,16 +28406,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.3198412532387</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28424,10 +28424,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3572203790713</v>
+        <v>46.29747221942044</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U15" t="n">
-        <v>48.66568061834871</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X15" t="n">
-        <v>28.75053738888914</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.3296493245552</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245552</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245552</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.3296493245552</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>169.0048292942736</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055729</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N16" t="n">
         <v>16.49709222984363</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830507</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="P16" t="n">
-        <v>58.4603693146088</v>
+        <v>169.3243415993511</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802786</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273233</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017754</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.4097000958762</v>
+        <v>245.4097000958765</v>
       </c>
       <c r="R17" t="n">
         <v>297.4245917920612</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>49.90656126987329</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490442</v>
+        <v>3.025074842490369</v>
       </c>
       <c r="T18" t="n">
         <v>214.9701989459033</v>
@@ -28700,10 +28700,10 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.0865438648207</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.71837632707224</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28749,10 +28749,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N19" t="n">
         <v>16.49709222984363</v>
@@ -28822,10 +28822,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886093</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273233</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>84.77967848890081</v>
+        <v>104.4497832362088</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688972</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R20" t="n">
-        <v>194.860438051743</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7337882414754</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R21" t="n">
         <v>134.7086383504342</v>
@@ -28934,19 +28934,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>217.4585228602252</v>
+        <v>48.66568061834866</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>113.2590741569911</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888909</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.82190908344415</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28986,10 +28986,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N22" t="n">
         <v>16.49709222984363</v>
@@ -29062,10 +29062,10 @@
         <v>265.3154769886094</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273233</v>
+        <v>195.2468265688547</v>
       </c>
       <c r="L23" t="n">
-        <v>93.51490316406657</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017754</v>
+        <v>69.83440971475576</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688972</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4245917920612</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S23" t="n">
         <v>227.5093375700639</v>
@@ -29092,7 +29092,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>21.43240981821373</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
         <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S24" t="n">
-        <v>145.4991628521227</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>26.40782189532177</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834865</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652643007</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888909</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.8219090834441</v>
       </c>
     </row>
     <row r="25">
@@ -29223,10 +29223,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N25" t="n">
         <v>16.49709222984363</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680336</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29360,10 +29360,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7444246896586</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>146.9273036960795</v>
       </c>
       <c r="U27" t="n">
-        <v>181.8109611909122</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29457,19 +29457,19 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>67.01246855587067</v>
+        <v>123.6981991733412</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N28" t="n">
-        <v>213.3421639039777</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830507</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P28" t="n">
         <v>58.4603693146088</v>
@@ -29481,25 +29481,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7337882414754</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5874518930719</v>
@@ -29645,13 +29645,13 @@
         <v>213.4669766680327</v>
       </c>
       <c r="U30" t="n">
+        <v>38.33007089493921</v>
+      </c>
+      <c r="V30" t="n">
         <v>213.4669766680327</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>160.7850586051113</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
         <v>213.4669766680327</v>
@@ -29697,10 +29697,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M31" t="n">
-        <v>213.4669766680327</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N31" t="n">
         <v>16.49709222984363</v>
@@ -29709,10 +29709,10 @@
         <v>37.45757960830507</v>
       </c>
       <c r="P31" t="n">
-        <v>58.4603693146088</v>
+        <v>204.8928850672797</v>
       </c>
       <c r="Q31" t="n">
-        <v>171.6257542164177</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810569</v>
@@ -29770,7 +29770,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680336</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K32" t="n">
         <v>213.4669766680327</v>
@@ -29828,10 +29828,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>49.7896149012127</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
         <v>125.7337882414754</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,16 +29870,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5874518930719</v>
+        <v>42.22014023481435</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U33" t="n">
         <v>213.4669766680327</v>
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>184.5370523264557</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>213.4669766680327</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7006242014745</v>
@@ -29928,16 +29928,16 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587067</v>
+        <v>206.4695708425094</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N34" t="n">
         <v>16.49709222984363</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0596768448572</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1428439929024</v>
+        <v>134.5222034439311</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017754</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>201.148483553738</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>28.62970453280684</v>
+        <v>17.21361028387244</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30159,7 +30159,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3785132818905</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I37" t="n">
         <v>164.8484353357569</v>
@@ -30171,10 +30171,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N37" t="n">
         <v>16.49709222984363</v>
@@ -30195,16 +30195,16 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7609144406078</v>
+        <v>259.3163701561325</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448572</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448572</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K38" t="n">
-        <v>196.2316507017839</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017754</v>
+        <v>247.7011370154607</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0596768448572</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
     </row>
     <row r="39">
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30320,10 +30320,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3572203790713</v>
+        <v>75.91280788304006</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668527</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504342</v>
@@ -30356,16 +30356,16 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>164.7048929040697</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.172376380493</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30408,10 +30408,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N40" t="n">
         <v>16.49709222984363</v>
@@ -30435,16 +30435,16 @@
         <v>223.7609144406078</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>257.4749111237672</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30487,16 +30487,16 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>54.53995161096681</v>
+        <v>68.02742895930004</v>
       </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
@@ -30508,7 +30508,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T41" t="n">
         <v>240.9968149183972</v>
@@ -30557,7 +30557,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>79.4442398671126</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>202.3178121027358</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30639,16 +30639,16 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2289512774728</v>
+        <v>223.3672292753898</v>
       </c>
       <c r="K43" t="n">
         <v>67.01246855587067</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055729</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N43" t="n">
         <v>16.49709222984363</v>
@@ -30660,7 +30660,7 @@
         <v>58.4603693146088</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.3426427414221</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R43" t="n">
         <v>203.4231839810569</v>
@@ -30718,22 +30718,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802786</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>86.55983339248661</v>
+      </c>
+      <c r="O44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="M44" t="n">
-        <v>240.9968149183972</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
@@ -30742,13 +30742,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="R44" t="n">
-        <v>218.783666591336</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
-        <v>240.9968149183972</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30779,13 +30779,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705467</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>149.8596274556807</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30839,10 +30839,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>206.3636529428842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30882,10 +30882,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>135.2676854484743</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N46" t="n">
         <v>16.49709222984363</v>
@@ -30894,7 +30894,7 @@
         <v>37.45757960830507</v>
       </c>
       <c r="P46" t="n">
-        <v>58.4603693146088</v>
+        <v>87.05901336610097</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H11" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I11" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P12" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T13" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H14" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P15" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R15" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H16" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T16" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H17" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I17" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P18" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R18" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H19" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T19" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H20" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I20" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P21" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R21" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T22" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H23" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P24" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R24" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T25" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H26" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I26" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P27" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R27" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T28" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H29" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I29" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P30" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R30" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T31" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H32" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P33" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R33" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M34" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T34" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H35" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P36" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R36" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M37" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T37" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H38" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P39" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R39" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M40" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T40" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H41" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P42" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R42" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M43" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T43" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H44" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208907</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302561</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380559</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777767</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.217793705433275</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421367</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569376</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972319</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P45" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R45" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868066</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218915</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074257</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146573</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084763</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M46" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252962</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785265</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563596</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T46" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865273</v>
+        <v>83.29029764426676</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>171.6451998062821</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221609</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505814</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O11" t="n">
-        <v>75.568221080781</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443776</v>
+        <v>163.2859966443778</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766547</v>
+        <v>88.65419834766561</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515593</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35498,7 +35498,7 @@
         <v>183.5573176570687</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578655</v>
@@ -35544,49 +35544,49 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.87246835258296</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.1469990738446</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15.32912853228764</v>
       </c>
       <c r="F13" t="n">
-        <v>39.40276710610854</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080746</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818957</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.1006980470824</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608084</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O13" t="n">
-        <v>65.48340715740989</v>
+        <v>140.8720697162503</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.12528458105018</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865273</v>
+        <v>101.5765493865275</v>
       </c>
       <c r="K14" t="n">
-        <v>171.645199806282</v>
+        <v>153.3589480640214</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221609</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O14" t="n">
-        <v>188.5623770505815</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P14" t="n">
-        <v>79.71447896024111</v>
+        <v>163.2859966443778</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.65419834766561</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515611</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
         <v>188.5623770505815</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7127286595870999</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87246835258284</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384448</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.6535081123302</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610854</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.629025123080746</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879831</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.77587801680082</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686845</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608084</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.8720697162503</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>110.8639722847423</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105018</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221609</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.7342491189865</v>
+        <v>155.7342491189868</v>
       </c>
       <c r="R17" t="n">
         <v>102.5641537403183</v>
@@ -35969,7 +35969,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
         <v>188.5623770505815</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545037</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366399</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J20" t="n">
         <v>188.5623770505815</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221609</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P20" t="n">
-        <v>69.73602580872327</v>
+        <v>89.40613055603129</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199729</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
         <v>188.5623770505815</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,37 +36358,37 @@
         <v>188.5623770505815</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="L23" t="n">
-        <v>140.7606993562827</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>54.79075703457823</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
         <v>188.5623770505815</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743338</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861629066</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N27" t="n">
         <v>207.0214827210603</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306465</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>56.68573061747053</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.8450716741341</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.0093970597277</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743338</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290727</v>
@@ -36850,7 +36850,7 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
         <v>18.60653861628978</v>
@@ -36917,7 +36917,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N30" t="n">
         <v>207.0214827210603</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.273738204286</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>146.432515752671</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.42138947291266</v>
+        <v>86.26261192452773</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300058</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497595</v>
@@ -37075,22 +37075,22 @@
         <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671758</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743337</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290726</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878552</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628973</v>
+        <v>18.60653861628979</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N33" t="n">
         <v>207.0214827210603</v>
@@ -37203,16 +37203,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606034</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28432641732198</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>42.86091111423072</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.54009444958604</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.23802539055995</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>139.4571022866388</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192645993</v>
+        <v>31.06286192646005</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068293</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746292</v>
+        <v>127.8377539256579</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221609</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3842258679674</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R35" t="n">
-        <v>6.288045501995072</v>
+        <v>77.19923879311432</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479323</v>
+        <v>44.55033927479334</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59526635964689</v>
+        <v>49.595266359647</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357092</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N36" t="n">
         <v>207.0214827210603</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.55545571552494</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192645993</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068293</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>189.5472011835107</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221609</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>232.6574843352832</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679674</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1992387931142</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479323</v>
+        <v>44.55033927479334</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964689</v>
+        <v>49.595266359647</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357092</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N39" t="n">
         <v>207.0214827210603</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.55545571552494</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221609</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914311</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N41" t="n">
-        <v>130.6886889172679</v>
+        <v>144.1761662656011</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382197</v>
@@ -37801,10 +37801,10 @@
         <v>151.3213639415075</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665427</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318696</v>
@@ -37865,7 +37865,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N42" t="n">
         <v>207.0214827210603</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
         <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106133</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7345025175404</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630107</v>
+        <v>162.7085706987877</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276103993</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
         <v>225.9531622382197</v>
@@ -38038,13 +38038,13 @@
         <v>151.3213639415075</v>
       </c>
       <c r="R44" t="n">
-        <v>23.92322853959309</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.53240443318696</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5573176570687</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N45" t="n">
         <v>207.0214827210603</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.53963394642489</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>28.59864405149218</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
